--- a/eVaSys.Server/Assets/Templates/EtatTrimestrielCollectiviteCS.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatTrimestrielCollectiviteCS.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Repos\Valorplast\eValorplastWebApp\Assets\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E8686-5A3F-4B97-AFBB-94997C3E5C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA84691-60D2-42BE-AEDE-471CB95EDAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="4380" windowWidth="23364" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18456" yWindow="3960" windowWidth="25884" windowHeight="19248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>RS</t>
   </si>
@@ -50,24 +50,10 @@
   </si>
   <si>
     <t>EMBALLAGES PLASTIQUE</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>COMPOSANT</t>
-  </si>
-  <si>
-    <t>COUT DE SURTRI 
-(-€HT/t)</t>
   </si>
   <si>
     <t>PRIX DE REPRISE 
 (€HT/t)</t>
-  </si>
-  <si>
-    <t>COUT DE TRANSPORT 
-(-€HT/t)</t>
   </si>
   <si>
     <t>POIDS 
@@ -89,6 +75,10 @@
     <t xml:space="preserve">L’état trimestriel est à titre informatif. 
 Merci de vous baser sur la note de crédit 
 pour émettre votre avis des sommes à payer. </t>
+  </si>
+  <si>
+    <t>TOTAL 
+(€HT)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -156,32 +146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -231,35 +195,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -267,18 +225,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +585,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:J46"/>
+  <dimension ref="A4:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,479 +598,487 @@
     <col min="5" max="5" width="15.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="13.59765625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="E4" s="3"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="E5" s="3"/>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
       <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
       <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="4"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="61">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="A10:C13"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/eVaSys.Server/Assets/Templates/EtatTrimestrielCollectiviteCS.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatTrimestrielCollectiviteCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA84691-60D2-42BE-AEDE-471CB95EDAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A9C3CB-E73B-4614-AF64-7393AF0AD97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18456" yWindow="3960" windowWidth="25884" windowHeight="19248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12288" yWindow="4116" windowWidth="25884" windowHeight="19248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>RS</t>
   </si>
@@ -75,10 +75,6 @@
     <t xml:space="preserve">L’état trimestriel est à titre informatif. 
 Merci de vous baser sur la note de crédit 
 pour émettre votre avis des sommes à payer. </t>
-  </si>
-  <si>
-    <t>TOTAL 
-(€HT)</t>
   </si>
 </sst>
 </file>
@@ -131,21 +127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -189,6 +170,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -200,22 +196,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -225,14 +222,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +581,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:I50"/>
+  <dimension ref="A4:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,8 +593,7 @@
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.8984375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -617,7 +612,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -625,53 +620,53 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="4"/>
       <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="4"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -685,345 +680,317 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="A45:C45"/>
@@ -1032,16 +999,10 @@
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -1049,36 +1010,42 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A10:C13"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A10:C13"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/eVaSys.Server/Assets/Templates/EtatTrimestrielCollectiviteCS.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatTrimestrielCollectiviteCS.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A9C3CB-E73B-4614-AF64-7393AF0AD97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04723D29-384B-4CB4-A977-FF2449E5BE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12288" yWindow="4116" windowWidth="25884" windowHeight="19248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6288" yWindow="3924" windowWidth="20736" windowHeight="18912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RS</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>CPVille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A l'attention de </t>
   </si>
   <si>
     <t xml:space="preserve">N° du contrat : </t>
@@ -600,23 +597,23 @@
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="E4" s="3"/>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="E5" s="3"/>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,7 +630,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -662,45 +659,42 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,24 +979,35 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A10:C13"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -1017,35 +1022,24 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A10:C13"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
